--- a/domain.xlsx
+++ b/domain.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muhammad.rafii\Desktop\SIPP Scrap\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3681C7-CD28-4D1B-AD50-F86FE5BEE814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99453321-3241-492A-BC3C-79E87332107F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33330" yWindow="8115" windowWidth="14400" windowHeight="7365" xr2:uid="{760A4AEC-AA09-42AA-B15A-2E32144B90CD}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{760A4AEC-AA09-42AA-B15A-2E32144B90CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,16 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="179">
-  <si>
-    <t>sipp.pn-jakartabarat.go.id</t>
-  </si>
-  <si>
-    <t>sipp2.pn-bandung.go.id</t>
-  </si>
-  <si>
-    <t>sipp.pn-jakartaselatan.go.id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="155">
   <si>
     <t>sipp.pn-negara.go.id</t>
   </si>
@@ -56,24 +50,12 @@
     <t>sipp.pn-jakartautara.go.id</t>
   </si>
   <si>
-    <t>sipp.pn-cibinong.go.id</t>
-  </si>
-  <si>
-    <t>sipp.pn-bekasikota.go.id</t>
-  </si>
-  <si>
     <t>sipp.pn-jakartatimur.go.id</t>
   </si>
   <si>
     <t>sipp.pn-bogor.go.id</t>
   </si>
   <si>
-    <t>sipp.pn-semarangkota.go.id</t>
-  </si>
-  <si>
-    <t>sipp.pn-balebandung.go.id</t>
-  </si>
-  <si>
     <t>sipp.pn-palembang.go.id</t>
   </si>
   <si>
@@ -89,9 +71,6 @@
     <t>sipp.pn-padang.go.id</t>
   </si>
   <si>
-    <t>sipp.pn-makassar.go.id</t>
-  </si>
-  <si>
     <t>sipp.pn-balikpapan.go.id</t>
   </si>
   <si>
@@ -146,9 +125,6 @@
     <t>sipp.pn-palangkaraya.go.id</t>
   </si>
   <si>
-    <t>sipp.pn-palu.go.id</t>
-  </si>
-  <si>
     <t>sipp.pn-pontianak.go.id</t>
   </si>
   <si>
@@ -161,9 +137,6 @@
     <t>sipp.pn-kupang.go.id</t>
   </si>
   <si>
-    <t>sipp.pn-tamianglayang.go.id</t>
-  </si>
-  <si>
     <t>sipp.pn-purwakarta.go.id</t>
   </si>
   <si>
@@ -194,9 +167,6 @@
     <t>sipp.pn-nganjuk.go.id</t>
   </si>
   <si>
-    <t>sipp.pn-medankota.go.id</t>
-  </si>
-  <si>
     <t>sipp.pn-wangiwangi.go.id</t>
   </si>
   <si>
@@ -245,9 +215,6 @@
     <t>sipp.pn-ketapang.go.id</t>
   </si>
   <si>
-    <t>sipp.pn-jakartapusat.go.id</t>
-  </si>
-  <si>
     <t>sipp.pn-tulungagung.go.id</t>
   </si>
   <si>
@@ -332,9 +299,6 @@
     <t>sipp.pn-sragen.go.id</t>
   </si>
   <si>
-    <t>sipp.pn-tilamuta.go.id</t>
-  </si>
-  <si>
     <t>sipp.pn-bintuhan.go.id</t>
   </si>
   <si>
@@ -344,9 +308,6 @@
     <t>sipp.pn-simalungun.go.id</t>
   </si>
   <si>
-    <t>sipp.pn-gunungsugih.go.id</t>
-  </si>
-  <si>
     <t>sipp.pn-dataranhunipopu.go.id</t>
   </si>
   <si>
@@ -359,18 +320,12 @@
     <t>sipp.pn-labuha.go.id</t>
   </si>
   <si>
-    <t>sipp.pn-bondowoso.go.id</t>
-  </si>
-  <si>
     <t>sipp.pn-sengkang.go.id</t>
   </si>
   <si>
     <t>sipp.pn-maumere.go.id</t>
   </si>
   <si>
-    <t>sipp.pn-kualakurun.go.id</t>
-  </si>
-  <si>
     <t>sipp.pn-pemalang.go.id</t>
   </si>
   <si>
@@ -413,9 +368,6 @@
     <t>sipp.pn-kedirikab.go.id</t>
   </si>
   <si>
-    <t>sipp.pn-kendari.go.id</t>
-  </si>
-  <si>
     <t>sipp.pn-sampit.go.id</t>
   </si>
   <si>
@@ -449,9 +401,6 @@
     <t>sipp.pn-polewali.go.id</t>
   </si>
   <si>
-    <t>sipp.pn-jember.go.id</t>
-  </si>
-  <si>
     <t>sipp.pn-bengkayang.go.id</t>
   </si>
   <si>
@@ -485,21 +434,9 @@
     <t>sipp.pn-lamongan.go.id</t>
   </si>
   <si>
-    <t>sipp.pn-probolinggo.go.id</t>
-  </si>
-  <si>
-    <t>sipp.pn-ciamis.go.id</t>
-  </si>
-  <si>
     <t>sipp.pn-tanjungpinangkota.go.id</t>
   </si>
   <si>
-    <t>sipp.pn-simpnagtigaredelong.go.id</t>
-  </si>
-  <si>
-    <t>sipp.pn-banjar.go.id</t>
-  </si>
-  <si>
     <t>sipp.pn-tembilahan.go.id</t>
   </si>
   <si>
@@ -536,9 +473,6 @@
     <t>sipp.pn-takengon.go.id</t>
   </si>
   <si>
-    <t>sipp.pn-buntok.go.id</t>
-  </si>
-  <si>
     <t>sipp.pn-tual.go.id</t>
   </si>
   <si>
@@ -555,9 +489,6 @@
   </si>
   <si>
     <t>sipp.pn-tarutung.go.id</t>
-  </si>
-  <si>
-    <t>sipp.pn-semarang.go.id</t>
   </si>
   <si>
     <t>sipp.pn-fakfak.go.id</t>
@@ -944,9 +875,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A2AC26-5750-45DA-8A5D-8460B61405E5}">
-  <dimension ref="A1:A183"/>
+  <dimension ref="A1:A159"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -955,7 +888,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
@@ -965,137 +898,137 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.35">
@@ -1595,127 +1528,127 @@
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>131</v>
+        <v>9</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>133</v>
+        <v>19</v>
       </c>
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>16</v>
+        <v>146</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>27</v>
+        <v>148</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.35">
@@ -1745,130 +1678,11 @@
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A161" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A162" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A164" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A165" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A166" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A167" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A168" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A169" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A170" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A171" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A172" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A173" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A174" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A175" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A176" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A177" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A178" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A179" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A180" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A181" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A182" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A183" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1" xr:uid="{74A2AC26-5750-45DA-8A5D-8460B61405E5}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>